--- a/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC移行データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gsp032\Desktop\GitHub\RyotaYamada\吉田学園情報ビジネス専門学校_山田陵太\03_履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>年</t>
   </si>
@@ -454,27 +454,83 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私はゲーム開発の中でも特に根幹となるゲームのシステム開発に関わりたいと思っています。</t>
+    <t>ゲームシステムのプログラム。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は、楽しいを届けられるゲームプログラマーになりたいと考えています。</t>
     <rPh sb="0" eb="1">
       <t>ワタシ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>貴社のプログラマーとして最大限開発に貢献していきたいと思います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>在学中には、誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私の力を最大限発揮できる環境で開発に携われると思い志望しました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中のUIや演出の見た目での楽しさや、ゲームのシステムでの楽しさを感じられるように</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>意識しています。</t>
+    <rPh sb="0" eb="2">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「楽しいゲームは、楽しく働ける環境から」、という貴社の理念は私の思いとも一致しており、</t>
+    <rPh sb="27" eb="29">
+      <t>リネン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>楽しいを届けるには、開発に携わる人が、楽しいを追求できる環境が大事だと思っており、</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コンカン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カカ</t>
+    <rPh sb="13" eb="14">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイジ</t>
     </rPh>
     <rPh sb="35" eb="36">
       <t>オモ</t>
@@ -482,128 +538,40 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>システムはゲームにおいて重要な部分であり、作品の出来を左右する要素の一つだと考えています。</t>
+    <t>楽しいを知らなければ、お客様に新たなものを届けることができないと私は考えます。</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
     <rPh sb="12" eb="14">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨウソ</t>
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワタシ</t>
     </rPh>
     <rPh sb="34" eb="35">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
       <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>御社の作品であるポケットモンスターシリーズでのタイプ相性や特性など多くの要素を組み合わせて、</t>
-    <rPh sb="0" eb="2">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アイショウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>時にダイマックスなどの新システムでお客様の新たな楽しみになるシステム開発を御社で行えたら嬉しく</t>
-    <rPh sb="0" eb="1">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タノ</t>
+    <t>入社したあかつきには、今まで以上に楽しいを届けられるように、在学中の経験を活かし、</t>
+    <rPh sb="30" eb="33">
+      <t>ザイガクチュウ</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ウレ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>思います。</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゲームシステムのプログラム。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>長年愛される作品を御社の方々と一緒に作りたいと思います。</t>
-    <rPh sb="0" eb="2">
-      <t>ナガネン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カタガタ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オモ</t>
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -710,7 +678,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1527,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1628,6 +1596,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1814,6 +1786,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1882,6 +1857,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1894,18 +1881,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1964,6 +1939,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1976,6 +1975,30 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1998,73 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2456,23 +2412,23 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="127" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="26" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="14" t="s">
@@ -2490,132 +2446,132 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="27"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-      <c r="P5" s="27"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
-      <c r="P6" s="27"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="P7" s="27"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="54">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55">
         <v>20</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="56"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2624,92 +2580,92 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="74"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="67" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="73" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="74"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2718,58 +2674,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="79" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="81"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="74"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="88"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2779,22 +2735,22 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9" t="s">
@@ -2803,22 +2759,22 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9" t="s">
@@ -2827,22 +2783,22 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9" t="s">
@@ -2851,22 +2807,22 @@
       <c r="C22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9" t="s">
@@ -2875,166 +2831,166 @@
       <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="99"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -3043,42 +2999,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="105"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -3087,22 +3043,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="94"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="96"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="24" t="s">
@@ -3111,22 +3067,22 @@
       <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="97"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -3197,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:L29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3222,122 +3178,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
     </row>
     <row r="4" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="111"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="111"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="111"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="113"/>
     </row>
     <row r="7" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="111"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="113"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="111"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="111"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="21"/>
@@ -3353,139 +3309,139 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="105"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="B15" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="113"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="127"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="21"/>
@@ -3501,27 +3457,27 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G21" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
       <c r="B22" s="128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="129"/>
       <c r="D22" s="129"/>
@@ -3535,142 +3491,142 @@
       <c r="L22" s="130"/>
     </row>
     <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
+      <c r="B23" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="133"/>
     </row>
     <row r="24" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="121"/>
+    </row>
+    <row r="25" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="121"/>
+    </row>
+    <row r="26" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B26" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="121"/>
+    </row>
+    <row r="27" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B27" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="121"/>
+    </row>
+    <row r="28" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="121"/>
+    </row>
+    <row r="29" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B29" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="133"/>
-    </row>
-    <row r="25" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="136"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="136"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="136"/>
-    </row>
-    <row r="28" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="136"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B27:L27"/>
@@ -3682,6 +3638,14 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>

--- a/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
@@ -478,14 +478,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>在学中には、誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私の力を最大限発揮できる環境で開発に携われると思い志望しました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ゲーム中のUIや演出の見た目での楽しさや、ゲームのシステムでの楽しさを感じられるように</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -504,40 +496,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>楽しいを届けるには、開発に携わる人が、楽しいを追求できる環境が大事だと思っており、</t>
-    <rPh sb="0" eb="1">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダイジ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>楽しいを知らなければ、お客様に新たなものを届けることができないと私は考えます。</t>
     <rPh sb="0" eb="1">
       <t>タノ</t>
@@ -572,6 +530,48 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私の力を最大限発揮できる環境で開発に携われると思い志望しました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>在学中には誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>楽しいを届けるには、開発に携わる人が楽しいを追求できる環境が大事だと思っております。</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -692,7 +692,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1332,43 +1332,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1495,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1584,15 +1547,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1600,6 +1563,179 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1722,174 +1858,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1900,127 +1977,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2412,22 +2378,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="76" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="79"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="26" t="s">
         <v>60</v>
       </c>
@@ -2446,132 +2412,132 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="P5" s="28"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="P6" s="28"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="88"/>
+      <c r="P6" s="77"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="P7" s="28"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="50" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="97"/>
+      <c r="H8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="55">
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="104">
         <v>20</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="77"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="57"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="106"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2580,92 +2546,92 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="75"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="57"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="68" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="74" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="57"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2674,58 +2640,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="81" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="90"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2735,22 +2701,22 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9" t="s">
@@ -2759,22 +2725,22 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9" t="s">
@@ -2783,22 +2749,22 @@
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9" t="s">
@@ -2807,22 +2773,22 @@
       <c r="C22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9" t="s">
@@ -2831,166 +2797,166 @@
       <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="99"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -2999,42 +2965,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -3043,22 +3009,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="96"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="24" t="s">
@@ -3067,60 +3033,25 @@
       <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="102"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -3136,6 +3067,41 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3151,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:Y31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3178,122 +3144,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="116"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="113"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="113"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="113"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="113"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="113"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="115"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="113"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="21"/>
@@ -3309,141 +3275,141 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="107"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="137"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="111" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+    </row>
+    <row r="17" spans="2:25" ht="32.1" customHeight="1">
+      <c r="B17" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="108" t="s">
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
+    </row>
+    <row r="18" spans="2:25" ht="16.5" customHeight="1">
+      <c r="B18" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-    </row>
-    <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="125" t="s">
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+    </row>
+    <row r="19" spans="2:25" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-    </row>
-    <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+    </row>
+    <row r="20" spans="2:25" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3456,180 +3422,225 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="134" t="s">
+    <row r="21" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
-    </row>
-    <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="128" t="s">
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="130"/>
+    </row>
+    <row r="22" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B22" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130"/>
-    </row>
-    <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="131" t="s">
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="121"/>
+    </row>
+    <row r="23" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B23" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+    </row>
+    <row r="24" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="109"/>
+      <c r="O24" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="109"/>
+    </row>
+    <row r="25" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
+    </row>
+    <row r="26" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B26" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="109"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+    </row>
+    <row r="27" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B27" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="109"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+    </row>
+    <row r="28" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
-    </row>
-    <row r="24" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="121"/>
-    </row>
-    <row r="25" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="119" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="109"/>
+    </row>
+    <row r="29" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B29" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="121"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="119" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="121"/>
-    </row>
-    <row r="28" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="121"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="122" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="109"/>
+    </row>
+    <row r="30" spans="2:25" ht="26.1" customHeight="1">
+      <c r="B30" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="124"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="109"/>
+    </row>
+    <row r="31" spans="2:25" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="138"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="O24:Y24"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B27:L27"/>
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
@@ -3646,17 +3657,6 @@
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>年</t>
   </si>
@@ -458,34 +458,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私は、楽しいを届けられるゲームプログラマーになりたいと考えています。</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>貴社のプログラマーとして最大限開発に貢献していきたいと思います。</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ゲーム中のUIや演出の見た目での楽しさや、ゲームのシステムでの楽しさを感じられるように</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>意識しています。</t>
-    <rPh sb="0" eb="2">
-      <t>イシキ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -538,10 +515,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>在学中には誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>楽しいを届けるには、開発に携わる人が楽しいを追求できる環境が大事だと思っております。</t>
     <rPh sb="0" eb="1">
       <t>タノ</t>
@@ -573,6 +546,55 @@
     <rPh sb="34" eb="35">
       <t>オモ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中のUIや演出の見た目での楽しさや、キャラクターを切り替えることで違った面白さを</t>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>体感できるようなゲームシステムを作成するように意識しています。</t>
+    <rPh sb="0" eb="2">
+      <t>タイカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は、「楽しい」を届けられるゲームプログラマーになりたいと考えています。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>在学中には誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -692,7 +714,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1449,6 +1471,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1458,7 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1870,6 +1929,30 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1944,49 +2027,37 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3117,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y31"/>
+  <dimension ref="B1:Z31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3144,122 +3215,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="115"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="115"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="115"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="115"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="115"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="115"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="21"/>
@@ -3275,7 +3346,7 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="140" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="46"/>
@@ -3287,129 +3358,129 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
-      <c r="L11" s="137"/>
+      <c r="L11" s="141"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-    </row>
-    <row r="17" spans="2:25" ht="32.1" customHeight="1">
-      <c r="B17" s="113" t="s">
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+    </row>
+    <row r="17" spans="2:26" ht="32.1" customHeight="1">
+      <c r="B17" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-    </row>
-    <row r="18" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B18" s="110" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
+    </row>
+    <row r="18" spans="2:26" ht="16.5" customHeight="1">
+      <c r="B18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-    </row>
-    <row r="19" spans="2:25" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="116" t="s">
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
+    </row>
+    <row r="19" spans="2:26" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-    </row>
-    <row r="20" spans="2:25" ht="12" customHeight="1" thickBot="1">
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+    </row>
+    <row r="20" spans="2:26" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3422,58 +3493,58 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="125" t="s">
+    <row r="21" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="130"/>
-    </row>
-    <row r="22" spans="2:25" ht="26.1" customHeight="1">
-      <c r="B22" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="121"/>
-    </row>
-    <row r="23" spans="2:25" ht="26.1" customHeight="1">
-      <c r="B23" s="122" t="s">
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+    </row>
+    <row r="22" spans="2:26" ht="26.1" customHeight="1">
+      <c r="B22" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
-    </row>
-    <row r="24" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
+    </row>
+    <row r="23" spans="2:26" ht="26.1" customHeight="1">
+      <c r="B23" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="130"/>
+    </row>
+    <row r="24" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B24" s="107" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -3486,7 +3557,7 @@
       <c r="K24" s="108"/>
       <c r="L24" s="109"/>
       <c r="O24" s="107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P24" s="108"/>
       <c r="Q24" s="108"/>
@@ -3499,9 +3570,9 @@
       <c r="X24" s="108"/>
       <c r="Y24" s="109"/>
     </row>
-    <row r="25" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+    <row r="25" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B25" s="107" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -3514,9 +3585,9 @@
       <c r="K25" s="108"/>
       <c r="L25" s="109"/>
     </row>
-    <row r="26" spans="2:25" ht="26.1" customHeight="1">
+    <row r="26" spans="2:26" ht="26.1" customHeight="1">
       <c r="B26" s="107" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -3529,20 +3600,23 @@
       <c r="K26" s="108"/>
       <c r="L26" s="109"/>
       <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-    </row>
-    <row r="27" spans="2:25" ht="26.1" customHeight="1">
+      <c r="P26" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="109"/>
+    </row>
+    <row r="27" spans="2:26" ht="26.1" customHeight="1">
       <c r="B27" s="107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -3566,9 +3640,9 @@
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
     </row>
-    <row r="28" spans="2:25" s="22" customFormat="1" ht="26.1" customHeight="1">
+    <row r="28" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B28" s="107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -3581,9 +3655,9 @@
       <c r="K28" s="108"/>
       <c r="L28" s="109"/>
     </row>
-    <row r="29" spans="2:25" ht="26.1" customHeight="1">
+    <row r="29" spans="2:26" ht="26.1" customHeight="1">
       <c r="B29" s="107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="108"/>
       <c r="D29" s="108"/>
@@ -3596,36 +3670,36 @@
       <c r="K29" s="108"/>
       <c r="L29" s="109"/>
     </row>
-    <row r="30" spans="2:25" ht="26.1" customHeight="1">
-      <c r="B30" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="109"/>
-    </row>
-    <row r="31" spans="2:25" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+    <row r="30" spans="2:26" ht="26.1" customHeight="1">
+      <c r="B30" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112"/>
+    </row>
+    <row r="31" spans="2:26" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="O24:Y24"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
@@ -3633,6 +3707,7 @@
     <mergeCell ref="B27:L27"/>
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="B26:L26"/>
+    <mergeCell ref="P26:Z26"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D8:L8"/>

--- a/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_山田陵太/03_履歴書/29_山田陵太_履歴書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gsp032\Desktop\GitHub\RyotaYamada\吉田学園情報ビジネス専門学校_山田陵太\03_履歴書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gsp032\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21108" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21108" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書(表)" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>年</t>
   </si>
@@ -268,37 +268,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>北海道札幌市東区北16条東10丁目1番5-302号</t>
-    <rPh sb="0" eb="3">
-      <t>ホッカイドウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サッポロシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒガシク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>080-1971-9238</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -311,25 +280,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ゲームプログラマー</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>吉田学園情報ビジネス専門学校　ゲームスペシャリスト学科　卒業見込み</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>4月</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -359,10 +314,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>3月</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>江陵高等学校　普通科　卒業</t>
     <rPh sb="0" eb="1">
       <t>コウ</t>
@@ -386,34 +337,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>平成28年</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>平成31年</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>平成31年</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>令和4年</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -431,6 +354,319 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>物事のルールをしっかり守ろうとする姿勢が長所です。</t>
+    <rPh sb="0" eb="2">
+      <t>モノゴト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲームシステムのプログラム。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は、楽しいを届けられるゲームプログラマーになりたいと考えています。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>楽しいを届けるには、開発に携わるすべての人が楽しめる環境が大切だと私は思います。</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「楽しいゲームは、楽しく働ける環境から」、という貴社の言葉は私の思いとも一致しており、</t>
+    <rPh sb="1" eb="2">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私の力を最大限発揮できる環境で開発に携われると思い志望しました。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイダイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>在学中には、誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
+    <rPh sb="0" eb="3">
+      <t>ザイガクチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中のUIや演出の見た目の楽しさや、ゲームのシステムでの楽しさを感じらるように</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>勉強しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入社したあかつきには、今まで以上に楽しいを届けられるように、常に楽しいを追求し、</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>貴社のプログラマーとして最大限開発に貢献していきたいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイダイゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学歴</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>以上　　</t>
+  </si>
+  <si>
+    <t>　　　北海道札幌市東区北16条東10丁目1番5-302号</t>
+    <rPh sb="3" eb="6">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サッポロシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒガシク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウメ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和4</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成31</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成31</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成28</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和3</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>免許</t>
+    <rPh sb="0" eb="2">
+      <t>メンキョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>令和2</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
@@ -438,163 +674,31 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>物事のルールをしっかり守ろうとする姿勢が長所です。</t>
+    <t>普通自動車第一種運転免許　取得</t>
     <rPh sb="0" eb="2">
-      <t>モノゴト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マモ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チョウショ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゲームシステムのプログラム。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>貴社のプログラマーとして最大限開発に貢献していきたいと思います。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゲーム中のUIや演出の見た目での楽しさや、ゲームのシステムでの楽しさを感じられるように</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>「楽しいゲームは、楽しく働ける環境から」、という貴社の理念は私の思いとも一致しており、</t>
-    <rPh sb="27" eb="29">
-      <t>リネン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>楽しいを知らなければ、お客様に新たなものを届けることができないと私は考えます。</t>
-    <rPh sb="0" eb="1">
-      <t>タノ</t>
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジドウ</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>入社したあかつきには、今まで以上に楽しいを届けられるように、在学中の経験を活かし、</t>
-    <rPh sb="30" eb="33">
-      <t>ザイガクチュウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私の力を最大限発揮できる環境で開発に携われると思い志望しました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>楽しいを届けるには、開発に携わる人が楽しいを追求できる環境が大事だと思っております。</t>
-    <rPh sb="0" eb="1">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トド</t>
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンテン</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイキュウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダイジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ゲーム中のUIや演出の見た目での楽しさや、キャラクターを切り替えることで違った面白さを</t>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>オモシロ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>体感できるようなゲームシステムを作成するように意識しています。</t>
-    <rPh sb="0" eb="2">
-      <t>タイカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イシキ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私は、「楽しい」を届けられるゲームプログラマーになりたいと考えています。</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>在学中には誰もが楽しめるを目標に、特に演出にこだわりながら制作を行っています。</t>
+      <t>メンキョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -602,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -693,13 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1359,6 +1456,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1475,49 +1609,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1606,23 +1702,251 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1636,17 +1960,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1659,6 +1972,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1671,286 +1995,12 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1975,6 +2025,47 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1987,31 +2078,31 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2023,46 +2114,40 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2083,15 +2168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>61146</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>93736</xdr:rowOff>
+      <xdr:rowOff>96452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>268014</xdr:colOff>
+      <xdr:colOff>260580</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>87236</xdr:rowOff>
+      <xdr:rowOff>89952</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2100,8 +2185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4482925" y="1575695"/>
-          <a:ext cx="199434" cy="198451"/>
+          <a:off x="4454726" y="1572130"/>
+          <a:ext cx="199434" cy="197939"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2138,6 +2223,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1099527</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5152294" y="357554"/>
+          <a:ext cx="1087802" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2432,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:N13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2449,166 +2578,166 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="P3" s="77"/>
+      <c r="C3" s="29"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="G4" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="77"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
-      <c r="P5" s="77"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88"/>
-      <c r="P6" s="77"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
-      <c r="P7" s="77"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="99" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="101" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="104">
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="52">
         <v>20</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="M8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="77"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="106"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="72" t="s">
+      <c r="C10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2617,67 +2746,67 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="51"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P11" s="66"/>
       <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61" t="s">
+      <c r="B12" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="72"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="C13" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="66"/>
       <c r="Q13" s="67"/>
@@ -2686,23 +2815,23 @@
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="61" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2711,58 +2840,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="79"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="57"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="44"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="86"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2772,262 +2901,274 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="92"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+        <v>67</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+    </row>
+    <row r="24" spans="2:17" ht="26.1" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
-    </row>
-    <row r="24" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
+      <c r="D25" s="136" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="10">
+        <v>12</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="D28" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="101"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -3036,42 +3177,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="39"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -3080,22 +3221,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="92"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="24" t="s">
@@ -3104,28 +3245,62 @@
       <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="C6:N7"/>
     <mergeCell ref="B8:C9"/>
@@ -3138,41 +3313,7 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3188,10 +3329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z31"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3215,122 +3356,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
     </row>
     <row r="4" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="121"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="121"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="121"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="121"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="109"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="121"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="109"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="121"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="109"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="21"/>
@@ -3346,141 +3487,141 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="141"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="B13" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="B15" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
-    </row>
-    <row r="17" spans="2:26" ht="32.1" customHeight="1">
-      <c r="B17" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
-    </row>
-    <row r="18" spans="2:26" ht="16.5" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="106"/>
+    </row>
+    <row r="17" spans="2:12" ht="32.1" customHeight="1">
+      <c r="B17" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" customHeight="1">
+      <c r="B18" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
-    </row>
-    <row r="19" spans="2:26" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-    </row>
-    <row r="20" spans="2:26" ht="12" customHeight="1" thickBot="1">
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+    </row>
+    <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
+    </row>
+    <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3493,229 +3634,178 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="131" t="s">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-    </row>
-    <row r="22" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B22" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
-    </row>
-    <row r="23" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B23" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
-    </row>
-    <row r="24" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="109"/>
-      <c r="O24" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="109"/>
-    </row>
-    <row r="25" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="109"/>
-    </row>
-    <row r="26" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B26" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="109"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="109"/>
-    </row>
-    <row r="27" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B27" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="109"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-    </row>
-    <row r="28" spans="2:26" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="109"/>
-    </row>
-    <row r="29" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B29" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="109"/>
-    </row>
-    <row r="30" spans="2:26" ht="26.1" customHeight="1">
-      <c r="B30" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="112"/>
-    </row>
-    <row r="31" spans="2:26" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="113"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="115"/>
+      <c r="G21" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="135"/>
+    </row>
+    <row r="22" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B22" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="126"/>
+    </row>
+    <row r="23" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B23" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+    </row>
+    <row r="24" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="117"/>
+    </row>
+    <row r="25" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
+    </row>
+    <row r="26" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B26" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+    </row>
+    <row r="27" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B27" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
+    </row>
+    <row r="28" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
+    </row>
+    <row r="29" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B29" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="117"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="O24:Y24"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B27:L27"/>
+  <mergeCells count="30">
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="B26:L26"/>
-    <mergeCell ref="P26:Z26"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B27:L27"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
@@ -3732,6 +3822,17 @@
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
